--- a/data/2025.3.10.xlsx
+++ b/data/2025.3.10.xlsx
@@ -244,9 +244,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -296,13 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,8 +609,8 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
